--- a/parsing_acm.xlsx
+++ b/parsing_acm.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="I1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>авастин концентрат 100мг/4мл фл. 4мл №1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>авастин концентрат 400мг/16мл фл. 16мл №1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>34950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>авиандр таб.п/обол. 20мг №30</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1377.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>аводарт капс. 0.5мг №30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2885.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>аводарт капс. 0.5мг №90</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5610.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>агарта мет таб.п/обол. 50мг+1000мг №60</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2216.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>агарта мет таб.п/обол. 50мг+850мг №60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1969.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>агарта таб. 50мг №30</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>570.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>адеметионин таб.п/обол. 400мг №20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1594.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>аденурик таб.п/обол. 120мг №28</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3975.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>аденурик таб.п/обол. 80мг №28</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>3196.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>адонис-бром таб.п/обол. №20</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>258.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>азарга капли глазные 5мл</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1105.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>азилект таб. 1мг №30</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>6945.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>азопт капли глазные 10мг/мл 5мл</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1190.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>азурикс таб.п/обол. 120мг №30</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2912.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>акатинол мемантин таб.п/обол. 10мг №90</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>4570.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>акатинол мемантин таб.п/обол. 20мг №28</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2987.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>акатинол мемантин таб.п/обол. 20мг №56</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5327.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>аква марис капли назальные для детей 10мл</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>226.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>аквалор софт дуо спрей назальный 150мл</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>530.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>акку-чек актив тест-полоски №100</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2423.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>акку-чек перформа тест-полоски №100</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2775.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>акласта раствор 50мкг/мл фл. 100мл</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>14020.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>акнекутан капс. 16мг №30</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3280.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>акнекутан капс. 8мг №30</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1905.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>акримекс таб.п/обол. 125мг №50</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>434.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>аксамон таб. 20мг №50</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1495.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>актитропил таб. 100мг №30</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>866.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>актовегин раствор 40мг/мл амп. 5мл №5</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>876.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>актовегин таб.п/обол. 200мг №50</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1914.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>актрапид нм раствор 100ме/мл фл. 10мл</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>459.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>аланин таб. 1000мг №90 эвалар (бад)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1124.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>алвовизан таб.п/обол. 2мг №28</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2685.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>аленталь таб.п/обол. 100мг №60</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>860.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>алзепил таб.п/обол. 10мг №28</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>3635.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>алзепил таб.п/обол. 10мг №56</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>5651.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>алзепил таб.п/обол. 5мг №28</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2657.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>аллапинин таб. 25мг №30</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>731.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>аллафорте таб.пролонг. 25мг №20</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>542.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>аллокин-альфа лиоф. д/р-ра амп. 1мг №3</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>аллокин-альфа лиоф. д/р-ра амп. 1мг №6</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>9350.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>аллопуринол-авексима таб. 100мг №50</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>167.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>аллопуринол-авексима таб. 300мг №30</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>215.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>алмонт таб.жев. 4мг №28</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1057.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>алмонт таб.жев. 4мг №98</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2968.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>алмонт таб.жев. 5мг №28</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1214.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>алмонт таб.жев. 5мг №98</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>3418.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>алмонт таб.п/обол. 10мг №28</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1346.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>алмонт таб.п/обол. 10мг №98</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3455.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>